--- a/MentoringData.xlsx
+++ b/MentoringData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -46,22 +46,22 @@
     <t xml:space="preserve">Admin Password</t>
   </si>
   <si>
-    <t xml:space="preserve">HELLO</t>
+    <t xml:space="preserve">Test</t>
   </si>
   <si>
-    <t xml:space="preserve">HELLOGH</t>
+    <t xml:space="preserve">TESTGG</t>
   </si>
   <si>
     <t xml:space="preserve">Education Domainee</t>
   </si>
   <si>
-    <t xml:space="preserve">[“com”]</t>
+    <t xml:space="preserve">[“ai”]</t>
   </si>
   <si>
-    <t xml:space="preserve">nevil@tunerlabs.com</t>
+    <t xml:space="preserve">rahul@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">PASSword###11</t>
+    <t xml:space="preserve">Rahul@123SS</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -94,16 +94,16 @@
     <t xml:space="preserve">Role</t>
   </si>
   <si>
-    <t xml:space="preserve">Saish</t>
+    <t xml:space="preserve">naveen@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naveen@78890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naveen</t>
   </si>
   <si>
     <t xml:space="preserve">mentor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rahul@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahul@123SS</t>
   </si>
   <si>
     <t xml:space="preserve">Rahul</t>
@@ -124,7 +124,22 @@
     <t xml:space="preserve">mentee</t>
   </si>
   <si>
-    <t xml:space="preserve">org_admin</t>
+    <t xml:space="preserve">syed@gamil.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syed@12374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saish@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saish@3456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saish</t>
   </si>
   <si>
     <t xml:space="preserve">Action</t>
@@ -191,9 +206,6 @@
   </si>
   <si>
     <t xml:space="preserve">Private</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdfsfdsdsfdfsdfsdf@armyspy.com</t>
   </si>
   <si>
     <t xml:space="preserve">05-02-2024</t>
@@ -286,13 +298,13 @@
     <t xml:space="preserve">roles</t>
   </si>
   <si>
-    <t xml:space="preserve">saish@gmail.com</t>
+    <t xml:space="preserve">DEV TEAM</t>
   </si>
   <si>
-    <t xml:space="preserve">mentor,session_manager</t>
+    <t xml:space="preserve">nevil@tunerlabs.com</t>
   </si>
   <si>
-    <t xml:space="preserve">DEV TEAM</t>
+    <t xml:space="preserve">sdfsfdsdsfdfsdfsdf@armyspy.com</t>
   </si>
   <si>
     <t xml:space="preserve">https://meet.google.com/peh-pruh-keo</t>
@@ -342,8 +354,8 @@
     </font>
     <font>
       <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -364,16 +376,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <u val="single"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -455,7 +467,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -465,11 +477,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -480,27 +488,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -524,11 +532,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -612,10 +620,10 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="G5 H1"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.06"/>
@@ -658,11 +666,15 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="rahul@gmail.com"/>
+    <hyperlink ref="F2" r:id="rId2" display="Rahul@123SS"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -681,33 +693,33 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="G5 D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -727,13 +739,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="G5 B2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
@@ -780,54 +792,32 @@
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
+      <c r="D2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>24</v>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>25</v>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>26</v>
@@ -837,7 +827,7 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="11"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -862,10 +852,10 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -897,21 +887,21 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -937,10 +927,21 @@
       <c r="AA5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1162,9 +1163,6 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -28768,43 +28766,18 @@
       <c r="Z999" s="9"/>
       <c r="AA999" s="9"/>
     </row>
-    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1000" s="9"/>
-      <c r="C1000" s="9"/>
-      <c r="D1000" s="9"/>
-      <c r="E1000" s="9"/>
-      <c r="F1000" s="9"/>
-      <c r="G1000" s="9"/>
-      <c r="H1000" s="9"/>
-      <c r="I1000" s="9"/>
-      <c r="J1000" s="9"/>
-      <c r="K1000" s="9"/>
-      <c r="L1000" s="9"/>
-      <c r="M1000" s="9"/>
-      <c r="N1000" s="9"/>
-      <c r="O1000" s="9"/>
-      <c r="P1000" s="9"/>
-      <c r="Q1000" s="9"/>
-      <c r="R1000" s="9"/>
-      <c r="S1000" s="9"/>
-      <c r="T1000" s="9"/>
-      <c r="U1000" s="9"/>
-      <c r="V1000" s="9"/>
-      <c r="W1000" s="9"/>
-      <c r="X1000" s="9"/>
-      <c r="Y1000" s="9"/>
-      <c r="Z1000" s="9"/>
-      <c r="AA1000" s="9"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="nevil@tunerlabs.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="rahul@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId3" display="Rahul@123SS"/>
-    <hyperlink ref="B4" r:id="rId4" display="prajwal@gmail.com"/>
-    <hyperlink ref="C4" r:id="rId5" display="RPrajwal@123SS"/>
-    <hyperlink ref="B5" r:id="rId6" display="mallanagouda@shikshalokam.org"/>
-    <hyperlink ref="C5" r:id="rId7" display="Mallan@777"/>
+    <hyperlink ref="B2" r:id="rId1" display="naveen@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId2" display="Naveen@78890"/>
+    <hyperlink ref="B3" r:id="rId3" display="rahul@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId4" display="Rahul@123SS"/>
+    <hyperlink ref="B4" r:id="rId5" display="prajwal@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId6" display="RPrajwal@123SS"/>
+    <hyperlink ref="B5" r:id="rId7" display="syed@gamil.com"/>
+    <hyperlink ref="C5" r:id="rId8" display="Syed@12374"/>
+    <hyperlink ref="B6" r:id="rId9" display="saish@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId10" display="Saish@3456787"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -28824,10 +28797,10 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.13"/>
@@ -28836,315 +28809,319 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="F1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="H1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
+      <c r="R1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>59</v>
+      <c r="L2" s="4" t="s">
+        <v>63</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>60</v>
+      <c r="M2" s="4" t="s">
+        <v>64</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>61</v>
+      <c r="N2" s="4" t="s">
+        <v>65</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>62</v>
+      <c r="O2" s="4" t="s">
+        <v>66</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>51</v>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>56</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>63</v>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>67</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>64</v>
+      <c r="D3" s="4" t="s">
+        <v>68</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>65</v>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>10</v>
+      <c r="F3" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>59</v>
+      <c r="L3" s="4" t="s">
+        <v>63</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>60</v>
+      <c r="M3" s="4" t="s">
+        <v>64</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>61</v>
+      <c r="N3" s="4" t="s">
+        <v>65</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>67</v>
+      <c r="O3" s="4" t="s">
+        <v>71</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>68</v>
+      <c r="P3" s="13" t="s">
+        <v>72</v>
       </c>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="14" t="n">
+        <v>123345</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="15" t="n">
-        <v>123345</v>
+      <c r="F4" s="0" t="s">
+        <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>55</v>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>59</v>
+      <c r="L4" s="4" t="s">
+        <v>63</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>60</v>
+      <c r="M4" s="4" t="s">
+        <v>64</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>61</v>
+      <c r="N4" s="4" t="s">
+        <v>65</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>73</v>
+      <c r="O4" s="4" t="s">
+        <v>77</v>
       </c>
-      <c r="P4" s="15" t="n">
+      <c r="P4" s="14" t="n">
         <v>5551112222</v>
       </c>
-      <c r="Q4" s="15" t="n">
+      <c r="Q4" s="14" t="n">
         <v>123456</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="14" t="n">
+        <v>234555</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="15" t="n">
-        <v>234555</v>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>55</v>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>59</v>
+      <c r="L5" s="4" t="s">
+        <v>63</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>60</v>
+      <c r="M5" s="4" t="s">
+        <v>64</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>61</v>
+      <c r="N5" s="4" t="s">
+        <v>65</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>76</v>
+      <c r="O5" s="4" t="s">
+        <v>80</v>
       </c>
-      <c r="P5" s="14" t="s">
-        <v>77</v>
+      <c r="P5" s="13" t="s">
+        <v>81</v>
       </c>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="4"/>
       <c r="R5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>78</v>
+      <c r="A6" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1287</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="nevil@tunerlabs.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="nevil@tunerlabs.com"/>
-    <hyperlink ref="P3" r:id="rId3" display="https://meet.google.com/jgx-ydjs-ptv?authuser=0"/>
-    <hyperlink ref="F4" r:id="rId4" display="nevil@tunerlabs.com"/>
-    <hyperlink ref="F5" r:id="rId5" display="nevil@tunerlabs.com"/>
-    <hyperlink ref="P5" r:id="rId6" display="https://call.whatsapp.com/video/tK0CUX6h4AjDsWoQNStz1g"/>
+    <hyperlink ref="F2" r:id="rId1" display="naveen@gmail.com"/>
+    <hyperlink ref="G2" r:id="rId2" display="prajwal@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId3" display="naveen@gmail.com"/>
+    <hyperlink ref="G3" r:id="rId4" display="prajwal@gmail.com"/>
+    <hyperlink ref="P3" r:id="rId5" display="https://meet.google.com/jgx-ydjs-ptv?authuser=0"/>
+    <hyperlink ref="F4" r:id="rId6" display="naveen@gmail.com"/>
+    <hyperlink ref="G4" r:id="rId7" display="syed@gamil.com"/>
+    <hyperlink ref="F5" r:id="rId8" display="naveen@gmail.com"/>
+    <hyperlink ref="G5" r:id="rId9" display="syed@gamil.com"/>
+    <hyperlink ref="P5" r:id="rId10" display="https://call.whatsapp.com/video/tK0CUX6h4AjDsWoQNStz1g"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -29164,10 +29141,10 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="G5 F1"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.84"/>
@@ -29178,39 +29155,39 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>79</v>
+      <c r="A1" s="15" t="s">
+        <v>83</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>80</v>
+      <c r="B1" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>50</v>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>84</v>
+      <c r="A2" s="16" t="s">
+        <v>88</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>84</v>
+      <c r="B2" s="16" t="s">
+        <v>88</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>84</v>
+      <c r="C2" s="16" t="s">
+        <v>88</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>84</v>
+      <c r="D2" s="16" t="s">
+        <v>88</v>
       </c>
-      <c r="E2" s="18" t="b">
+      <c r="E2" s="17" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29234,13 +29211,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="1" sqref="G5 F25"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.16"/>
@@ -29255,15 +29232,15 @@
         <v>13</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>31</v>
@@ -29273,29 +29250,56 @@
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>24</v>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>23</v>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>87</v>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
       </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="saish@gmail.com"/>
     <hyperlink ref="B3" r:id="rId2" display="rahul@gmail.com"/>
     <hyperlink ref="B4" r:id="rId3" display="prajwal@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="syed@gamil.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="naveen@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -29315,10 +29319,10 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="G5 G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.13"/>
@@ -29327,200 +29331,200 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="H1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>88</v>
+      <c r="M1" s="3" t="s">
+        <v>52</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="H2" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>59</v>
+      <c r="J2" s="4" t="s">
+        <v>63</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>60</v>
+      <c r="K2" s="4" t="s">
+        <v>64</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>61</v>
+      <c r="L2" s="4" t="s">
+        <v>65</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>67</v>
+      <c r="M2" s="4" t="s">
+        <v>71</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>89</v>
+      <c r="N2" s="13" t="s">
+        <v>93</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>51</v>
+      <c r="A3" s="4" t="s">
+        <v>56</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>90</v>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>94</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>64</v>
+      <c r="D3" s="4" t="s">
+        <v>68</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>65</v>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>10</v>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>55</v>
+      <c r="G3" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>59</v>
+      <c r="J3" s="4" t="s">
+        <v>63</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>60</v>
+      <c r="K3" s="4" t="s">
+        <v>64</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>61</v>
+      <c r="L3" s="4" t="s">
+        <v>65</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>67</v>
+      <c r="M3" s="4" t="s">
+        <v>71</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>89</v>
+      <c r="N3" s="13" t="s">
+        <v>93</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
